--- a/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/COMPARACION_KERNELS/FILTRO7X7/kernels/resultados.xlsx
+++ b/FILTROS IMAGENES/EXPERIMENTOS/RESULTADOS/COMPARACION_KERNELS/FILTRO7X7/kernels/resultados.xlsx
@@ -20,19 +20,19 @@
     <t>kernel_filter_color</t>
   </si>
   <si>
+    <t>kernel_filter_color_local_ineficiente</t>
+  </si>
+  <si>
+    <t>kernel_filter_color_local_hebra_maestra</t>
+  </si>
+  <si>
+    <t>kernel_filter_color_local_organizado</t>
+  </si>
+  <si>
+    <t>kernel_filter_color_local_organizado_junto</t>
+  </si>
+  <si>
     <t>kernel_filter_color_rectangular</t>
-  </si>
-  <si>
-    <t>kernel_filter_color_local</t>
-  </si>
-  <si>
-    <t>kernel_filter_color_local2</t>
-  </si>
-  <si>
-    <t>kernel_filter_color_local3</t>
-  </si>
-  <si>
-    <t>kernel_filter_color_local4</t>
   </si>
   <si>
     <t>kernel_filter_color_local_rectangular</t>
@@ -464,25 +464,19 @@
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>7.104E-06</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1.04E-05</v>
+        <v>8.192000000000001E-06</v>
       </c>
       <c r="D2" s="1">
-        <v>1.2096E-05</v>
+        <v>2.048E-05</v>
       </c>
       <c r="E2" s="1">
-        <v>1.9328E-05</v>
+        <v>8.192000000000001E-06</v>
       </c>
       <c r="F2" s="1">
-        <v>6.912E-06</v>
-      </c>
-      <c r="G2" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>8.000000000000001E-06</v>
       </c>
       <c r="H2" s="1">
-        <v>1.04E-05</v>
+        <v>1.328E-05</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -490,25 +484,19 @@
         <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>1.2192E-05</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1.2416E-05</v>
+        <v>1.2288E-05</v>
       </c>
       <c r="D3" s="1">
-        <v>1.552E-05</v>
+        <v>2.2528E-05</v>
       </c>
       <c r="E3" s="1">
-        <v>2.1312E-05</v>
+        <v>9.216000000000001E-06</v>
       </c>
       <c r="F3" s="1">
-        <v>8.192000000000001E-06</v>
-      </c>
-      <c r="G3" s="1">
-        <v>7.168000000000001E-06</v>
+        <v>9.216000000000001E-06</v>
       </c>
       <c r="H3" s="1">
-        <v>1.3088E-05</v>
+        <v>1.3632E-05</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -516,25 +504,19 @@
         <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>9.1136E-05</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4.4224E-05</v>
+        <v>9.216000000000001E-05</v>
       </c>
       <c r="D4" s="1">
-        <v>0.000155648</v>
+        <v>0.000160704</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000160608</v>
+        <v>4.8128E-05</v>
       </c>
       <c r="F4" s="1">
         <v>4.8128E-05</v>
       </c>
-      <c r="G4" s="1">
-        <v>2.56E-05</v>
-      </c>
       <c r="H4" s="1">
-        <v>3.6064E-05</v>
+        <v>3.6864E-05</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -542,25 +524,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>6.739200000000001E-05</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3.993600000000001E-05</v>
+        <v>6.758400000000001E-05</v>
       </c>
       <c r="D5" s="1">
-        <v>0.000139264</v>
+        <v>0.000239616</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000240544</v>
+        <v>6.4192E-05</v>
       </c>
       <c r="F5" s="1">
-        <v>6.342400000000001E-05</v>
-      </c>
-      <c r="G5" s="1">
-        <v>3.1744E-05</v>
+        <v>6.377600000000001E-05</v>
       </c>
       <c r="H5" s="1">
-        <v>4.1984E-05</v>
+        <v>4.3072E-05</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -568,25 +544,19 @@
         <v>12</v>
       </c>
       <c r="B6" s="1">
-        <v>0.000139264</v>
-      </c>
-      <c r="C6" s="1">
-        <v>7.376E-05</v>
+        <v>0.000140096</v>
       </c>
       <c r="D6" s="1">
-        <v>0.000237664</v>
+        <v>0.000451584</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000453632</v>
+        <v>0.000115872</v>
       </c>
       <c r="F6" s="1">
-        <v>0.000114688</v>
-      </c>
-      <c r="G6" s="1">
-        <v>5.5296E-05</v>
+        <v>0.000115712</v>
       </c>
       <c r="H6" s="1">
-        <v>7.0656E-05</v>
+        <v>7.1744E-05</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -594,25 +564,19 @@
         <v>13</v>
       </c>
       <c r="B7" s="1">
-        <v>0.000575392</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.00022608</v>
+        <v>0.0005754880000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>0.00099216</v>
+        <v>0.001006432</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001010688</v>
+        <v>0.000282624</v>
       </c>
       <c r="F7" s="1">
-        <v>0.000282624</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.000133472</v>
+        <v>0.000283648</v>
       </c>
       <c r="H7" s="1">
-        <v>0.00016896</v>
+        <v>0.000169024</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -620,25 +584,19 @@
         <v>14</v>
       </c>
       <c r="B8" s="1">
-        <v>0.00106608</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.000519136</v>
+        <v>0.001067008</v>
       </c>
       <c r="D8" s="1">
-        <v>0.00205504</v>
+        <v>0.003965952</v>
       </c>
       <c r="E8" s="1">
-        <v>0.003990528</v>
+        <v>0.0009775680000000001</v>
       </c>
       <c r="F8" s="1">
-        <v>0.0009756160000000001</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.000766656</v>
+        <v>0.000975872</v>
       </c>
       <c r="H8" s="1">
-        <v>0.000494368</v>
+        <v>0.0004956159999999999</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -646,25 +604,19 @@
         <v>15</v>
       </c>
       <c r="B9" s="1">
-        <v>0.007305984000000001</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.003448864</v>
+        <v>0.007307264000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>0.017787232</v>
+        <v>0.022918464</v>
       </c>
       <c r="E9" s="1">
-        <v>0.02307312</v>
+        <v>0.005951488</v>
       </c>
       <c r="F9" s="1">
-        <v>0.005926912</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.002625536</v>
+        <v>0.005926144</v>
       </c>
       <c r="H9" s="1">
-        <v>0.003298304</v>
+        <v>0.004482048000000001</v>
       </c>
     </row>
   </sheetData>
@@ -714,25 +666,19 @@
         <v>8</v>
       </c>
       <c r="B2" s="1">
-        <v>7.104E-06</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1.04E-05</v>
+        <v>8.192000000000001E-06</v>
       </c>
       <c r="D2" s="1">
-        <v>1.2096E-05</v>
+        <v>2.048E-05</v>
       </c>
       <c r="E2" s="1">
-        <v>1.9328E-05</v>
+        <v>8.192000000000001E-06</v>
       </c>
       <c r="F2" s="1">
-        <v>6.912E-06</v>
-      </c>
-      <c r="G2" s="1">
-        <v>6.144000000000001E-06</v>
+        <v>8.000000000000001E-06</v>
       </c>
       <c r="H2" s="1">
-        <v>1.04E-05</v>
+        <v>1.328E-05</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -740,25 +686,19 @@
         <v>9</v>
       </c>
       <c r="B3" s="1">
-        <v>1.2192E-05</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1.2416E-05</v>
+        <v>1.2288E-05</v>
       </c>
       <c r="D3" s="1">
-        <v>1.552E-05</v>
+        <v>2.2528E-05</v>
       </c>
       <c r="E3" s="1">
-        <v>2.1312E-05</v>
+        <v>9.216000000000001E-06</v>
       </c>
       <c r="F3" s="1">
-        <v>8.192000000000001E-06</v>
-      </c>
-      <c r="G3" s="1">
-        <v>7.168000000000001E-06</v>
+        <v>9.216000000000001E-06</v>
       </c>
       <c r="H3" s="1">
-        <v>1.3088E-05</v>
+        <v>1.3632E-05</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -766,25 +706,19 @@
         <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>9.1136E-05</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4.4224E-05</v>
+        <v>9.216000000000001E-05</v>
       </c>
       <c r="D4" s="1">
-        <v>0.000155648</v>
+        <v>0.000160704</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000160608</v>
+        <v>4.8128E-05</v>
       </c>
       <c r="F4" s="1">
         <v>4.8128E-05</v>
       </c>
-      <c r="G4" s="1">
-        <v>2.56E-05</v>
-      </c>
       <c r="H4" s="1">
-        <v>3.6064E-05</v>
+        <v>3.6864E-05</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -792,25 +726,19 @@
         <v>11</v>
       </c>
       <c r="B5" s="1">
-        <v>6.739200000000001E-05</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3.993600000000001E-05</v>
+        <v>6.758400000000001E-05</v>
       </c>
       <c r="D5" s="1">
-        <v>0.000139264</v>
+        <v>0.000239616</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000240544</v>
+        <v>6.4192E-05</v>
       </c>
       <c r="F5" s="1">
-        <v>6.342400000000001E-05</v>
-      </c>
-      <c r="G5" s="1">
-        <v>3.1744E-05</v>
+        <v>6.377600000000001E-05</v>
       </c>
       <c r="H5" s="1">
-        <v>4.1984E-05</v>
+        <v>4.3072E-05</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -818,25 +746,19 @@
         <v>12</v>
       </c>
       <c r="B6" s="1">
-        <v>0.000139264</v>
-      </c>
-      <c r="C6" s="1">
-        <v>7.376E-05</v>
+        <v>0.000140096</v>
       </c>
       <c r="D6" s="1">
-        <v>0.000237664</v>
+        <v>0.000451584</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000453632</v>
+        <v>0.000115872</v>
       </c>
       <c r="F6" s="1">
-        <v>0.000114688</v>
-      </c>
-      <c r="G6" s="1">
-        <v>5.5296E-05</v>
+        <v>0.000115712</v>
       </c>
       <c r="H6" s="1">
-        <v>7.0656E-05</v>
+        <v>7.1744E-05</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -844,25 +766,19 @@
         <v>13</v>
       </c>
       <c r="B7" s="1">
-        <v>0.000575392</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.00022608</v>
+        <v>0.0005754880000000001</v>
       </c>
       <c r="D7" s="1">
-        <v>0.00099216</v>
+        <v>0.001006432</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001010688</v>
+        <v>0.000282624</v>
       </c>
       <c r="F7" s="1">
-        <v>0.000282624</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.000133472</v>
+        <v>0.000283648</v>
       </c>
       <c r="H7" s="1">
-        <v>0.00016896</v>
+        <v>0.000169024</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -870,25 +786,19 @@
         <v>14</v>
       </c>
       <c r="B8" s="1">
-        <v>0.00106608</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.000519136</v>
+        <v>0.001067008</v>
       </c>
       <c r="D8" s="1">
-        <v>0.00205504</v>
+        <v>0.003965952</v>
       </c>
       <c r="E8" s="1">
-        <v>0.003990528</v>
+        <v>0.0009775680000000001</v>
       </c>
       <c r="F8" s="1">
-        <v>0.0009756160000000001</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.000766656</v>
+        <v>0.000975872</v>
       </c>
       <c r="H8" s="1">
-        <v>0.000494368</v>
+        <v>0.0004956159999999999</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -896,25 +806,19 @@
         <v>15</v>
       </c>
       <c r="B9" s="1">
-        <v>0.007305984000000001</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.003448864</v>
+        <v>0.007307264000000001</v>
       </c>
       <c r="D9" s="1">
-        <v>0.017787232</v>
+        <v>0.022918464</v>
       </c>
       <c r="E9" s="1">
-        <v>0.02307312</v>
+        <v>0.005951488</v>
       </c>
       <c r="F9" s="1">
-        <v>0.005926912</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.002625536</v>
+        <v>0.005926144</v>
       </c>
       <c r="H9" s="1">
-        <v>0.003298304</v>
+        <v>0.004482048000000001</v>
       </c>
     </row>
   </sheetData>
